--- a/medicine/Sexualité et sexologie/Plafond_de_coton/Plafond_de_coton.xlsx
+++ b/medicine/Sexualité et sexologie/Plafond_de_coton/Plafond_de_coton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le plafond de coton est un concept qui décrit la désexualisation des femmes transgenres dans les espaces queers. En particulier, ce concept permet d’expliquer la difficulté des femmes trans à avoir accès à la sexualité et aux relations sexuelles. 
@@ -512,9 +524,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour Natalie Reed, employée du National Center for Transgender Equality (en), le plafond de coton fait référence à la façon dont les femmes trans sont perçues et représentées[1]. D’après elle, les femmes trans sont désexualisées dans les espaces queers : elles ne sont presque jamais considérées comme des personnes avec une sexualité[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour Natalie Reed, employée du National Center for Transgender Equality (en), le plafond de coton fait référence à la façon dont les femmes trans sont perçues et représentées. D’après elle, les femmes trans sont désexualisées dans les espaces queers : elles ne sont presque jamais considérées comme des personnes avec une sexualité.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le concept est nommé par l’actrice pornographique trans Drew DeVeaux[1],[2], sur le modèle du « plafond de verre ». Le mot « coton » fait référence à la matière des sous-vêtements[2]. Toutefois, ce choix est critiqué : alors que le plafond de verre est une violation des droits des femmes à évoluer dans leurs carrières, le plafond de coton fait référence à un manque d’accès à la sexualité et aux relations sexuelles, ce que personne n’est obligé de donner[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le concept est nommé par l’actrice pornographique trans Drew DeVeaux sur le modèle du « plafond de verre ». Le mot « coton » fait référence à la matière des sous-vêtements. Toutefois, ce choix est critiqué : alors que le plafond de verre est une violation des droits des femmes à évoluer dans leurs carrières, le plafond de coton fait référence à un manque d’accès à la sexualité et aux relations sexuelles, ce que personne n’est obligé de donner.
 </t>
         </is>
       </c>
